--- a/Crawling/music/crawled_data/mod_flo/live_flo_20220503_110005.xlsx
+++ b/Crawling/music/crawled_data/mod_flo/live_flo_20220503_110005.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>flo</t>
+    <t>Flo</t>
   </si>
   <si>
     <t>2022-05-03</t>

--- a/Crawling/music/crawled_data/mod_flo/live_flo_20220503_110005.xlsx
+++ b/Crawling/music/crawled_data/mod_flo/live_flo_20220503_110005.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="251">
   <si>
     <t>사이트</t>
   </si>
@@ -688,7 +688,7 @@
     <t>MBC</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>EDAM</t>
@@ -767,9 +767,6 @@
   </si>
   <si>
     <t>BRAVE</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
 </sst>
 </file>
@@ -1234,7 +1231,7 @@
         <v>216</v>
       </c>
       <c r="H4" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1260,7 +1257,7 @@
         <v>217</v>
       </c>
       <c r="H5" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1286,7 +1283,7 @@
         <v>218</v>
       </c>
       <c r="H6" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1338,7 +1335,7 @@
         <v>220</v>
       </c>
       <c r="H8" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1364,7 +1361,7 @@
         <v>220</v>
       </c>
       <c r="H9" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1390,7 +1387,7 @@
         <v>218</v>
       </c>
       <c r="H10" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1442,7 +1439,7 @@
         <v>222</v>
       </c>
       <c r="H12" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1468,7 +1465,7 @@
         <v>223</v>
       </c>
       <c r="H13" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1494,7 +1491,7 @@
         <v>224</v>
       </c>
       <c r="H14" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1520,7 +1517,7 @@
         <v>220</v>
       </c>
       <c r="H15" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1572,7 +1569,7 @@
         <v>220</v>
       </c>
       <c r="H17" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1598,7 +1595,7 @@
         <v>225</v>
       </c>
       <c r="H18" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1624,7 +1621,7 @@
         <v>226</v>
       </c>
       <c r="H19" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1650,7 +1647,7 @@
         <v>227</v>
       </c>
       <c r="H20" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1676,7 +1673,7 @@
         <v>228</v>
       </c>
       <c r="H21" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1702,7 +1699,7 @@
         <v>229</v>
       </c>
       <c r="H22" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1728,7 +1725,7 @@
         <v>220</v>
       </c>
       <c r="H23" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1780,7 +1777,7 @@
         <v>220</v>
       </c>
       <c r="H25" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1806,7 +1803,7 @@
         <v>230</v>
       </c>
       <c r="H26" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1832,7 +1829,7 @@
         <v>231</v>
       </c>
       <c r="H27" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1858,7 +1855,7 @@
         <v>220</v>
       </c>
       <c r="H28" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1884,7 +1881,7 @@
         <v>220</v>
       </c>
       <c r="H29" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1910,7 +1907,7 @@
         <v>220</v>
       </c>
       <c r="H30" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1936,7 +1933,7 @@
         <v>220</v>
       </c>
       <c r="H31" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1962,7 +1959,7 @@
         <v>220</v>
       </c>
       <c r="H32" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1988,7 +1985,7 @@
         <v>220</v>
       </c>
       <c r="H33" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2014,7 +2011,7 @@
         <v>220</v>
       </c>
       <c r="H34" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2040,7 +2037,7 @@
         <v>220</v>
       </c>
       <c r="H35" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2066,7 +2063,7 @@
         <v>216</v>
       </c>
       <c r="H36" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2092,7 +2089,7 @@
         <v>229</v>
       </c>
       <c r="H37" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2118,7 +2115,7 @@
         <v>231</v>
       </c>
       <c r="H38" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2144,7 +2141,7 @@
         <v>232</v>
       </c>
       <c r="H39" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2196,7 +2193,7 @@
         <v>233</v>
       </c>
       <c r="H41" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2222,7 +2219,7 @@
         <v>217</v>
       </c>
       <c r="H42" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2248,7 +2245,7 @@
         <v>216</v>
       </c>
       <c r="H43" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2274,7 +2271,7 @@
         <v>234</v>
       </c>
       <c r="H44" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2300,7 +2297,7 @@
         <v>223</v>
       </c>
       <c r="H45" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2326,7 +2323,7 @@
         <v>225</v>
       </c>
       <c r="H46" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2352,7 +2349,7 @@
         <v>225</v>
       </c>
       <c r="H47" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2378,7 +2375,7 @@
         <v>235</v>
       </c>
       <c r="H48" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2404,7 +2401,7 @@
         <v>231</v>
       </c>
       <c r="H49" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2430,7 +2427,7 @@
         <v>225</v>
       </c>
       <c r="H50" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2508,7 +2505,7 @@
         <v>236</v>
       </c>
       <c r="H53" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2534,7 +2531,7 @@
         <v>237</v>
       </c>
       <c r="H54" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2560,7 +2557,7 @@
         <v>216</v>
       </c>
       <c r="H55" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2586,7 +2583,7 @@
         <v>238</v>
       </c>
       <c r="H56" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2612,7 +2609,7 @@
         <v>218</v>
       </c>
       <c r="H57" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2664,7 +2661,7 @@
         <v>224</v>
       </c>
       <c r="H59" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2690,7 +2687,7 @@
         <v>240</v>
       </c>
       <c r="H60" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2765,7 +2762,7 @@
         <v>231</v>
       </c>
       <c r="H63" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2817,7 +2814,7 @@
         <v>225</v>
       </c>
       <c r="H65" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2843,7 +2840,7 @@
         <v>234</v>
       </c>
       <c r="H66" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2895,7 +2892,7 @@
         <v>225</v>
       </c>
       <c r="H68" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2921,7 +2918,7 @@
         <v>241</v>
       </c>
       <c r="H69" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2973,7 +2970,7 @@
         <v>225</v>
       </c>
       <c r="H71" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2999,7 +2996,7 @@
         <v>242</v>
       </c>
       <c r="H72" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3025,7 +3022,7 @@
         <v>224</v>
       </c>
       <c r="H73" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3051,7 +3048,7 @@
         <v>230</v>
       </c>
       <c r="H74" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3077,7 +3074,7 @@
         <v>225</v>
       </c>
       <c r="H75" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3103,7 +3100,7 @@
         <v>243</v>
       </c>
       <c r="H76" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3129,7 +3126,7 @@
         <v>237</v>
       </c>
       <c r="H77" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3155,7 +3152,7 @@
         <v>244</v>
       </c>
       <c r="H78" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3207,7 +3204,7 @@
         <v>216</v>
       </c>
       <c r="H80" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3233,7 +3230,7 @@
         <v>245</v>
       </c>
       <c r="H81" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3259,7 +3256,7 @@
         <v>216</v>
       </c>
       <c r="H82" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3285,7 +3282,7 @@
         <v>231</v>
       </c>
       <c r="H83" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3311,7 +3308,7 @@
         <v>237</v>
       </c>
       <c r="H84" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3337,7 +3334,7 @@
         <v>224</v>
       </c>
       <c r="H85" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3441,7 +3438,7 @@
         <v>246</v>
       </c>
       <c r="H89" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3493,7 +3490,7 @@
         <v>247</v>
       </c>
       <c r="H91" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3519,7 +3516,7 @@
         <v>248</v>
       </c>
       <c r="H92" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3545,7 +3542,7 @@
         <v>231</v>
       </c>
       <c r="H93" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3597,7 +3594,7 @@
         <v>216</v>
       </c>
       <c r="H95" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3623,7 +3620,7 @@
         <v>227</v>
       </c>
       <c r="H96" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3649,7 +3646,7 @@
         <v>249</v>
       </c>
       <c r="H97" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3701,7 +3698,7 @@
         <v>250</v>
       </c>
       <c r="H99" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3727,7 +3724,7 @@
         <v>224</v>
       </c>
       <c r="H100" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3753,7 +3750,7 @@
         <v>224</v>
       </c>
       <c r="H101" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
